--- a/doc/pspm_options_subfields.xlsx
+++ b/doc/pspm_options_subfields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teddy/GitHub/PsPM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F43003-0C03-4D48-B1BE-61C9923F6E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DEA133-A38F-4F47-9392-07A2E688FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2750,10 +2750,10 @@
   <dimension ref="A1:FF123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BD16" sqref="BD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
